--- a/AMD_Adaptive_Battery_Charging/Reward_Function.xlsx
+++ b/AMD_Adaptive_Battery_Charging/Reward_Function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdcloud-my.sharepoint.com/personal/sachanta_amd_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachanta\OneDrive - Advanced Micro Devices Inc\AMD_Adaptive_Battery_Charging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{EDE21E99-CC48-4B32-98B5-EB860C193F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6568F0-A93A-4A20-B72C-BBFDE1C43F9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD730114-3C93-4479-B7AA-F01AFC7EF53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F93582C-EF62-422A-B129-71D780EDCE40}"/>
+    <workbookView xWindow="2000" yWindow="-93" windowWidth="23693" windowHeight="14586" xr2:uid="{2F93582C-EF62-422A-B129-71D780EDCE40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,20 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,34 +470,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB112572-660A-4248-9B80-A5D31DEF2775}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.703125" customWidth="1"/>
+    <col min="2" max="2" width="19.52734375" customWidth="1"/>
+    <col min="3" max="4" width="23.17578125" customWidth="1"/>
+    <col min="5" max="5" width="44.52734375" customWidth="1"/>
+    <col min="6" max="6" width="28.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,173 +515,173 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D6" s="4" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
         <v>1.2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="4" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -695,13 +692,13 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;KFF8C00[Confidential - AMD Internal Distribution Only]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K008000 [Public]&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{47c52c94-9a96-40b2-a9a0-f1a07208d47c}" enabled="1" method="Privileged" siteId="{3dd8961f-e488-4e60-8e11-a82d994e183d}" contentBits="1" removed="0"/>
+  <clbl:label id="{f265efc6-e181-49d6-80f4-fae95cf838a0}" enabled="1" method="Privileged" siteId="{3dd8961f-e488-4e60-8e11-a82d994e183d}" contentBits="1" removed="0"/>
 </clbl:labelList>
 </file>